--- a/biology/Mycologie/Thismia/Thismia.xlsx
+++ b/biology/Mycologie/Thismia/Thismia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lanterne de fée
-Thismia est un genre de plantes mycohétérotrophes de la famille des Burmanniacées et dont l'espèce type est Thismia brunonis. Ce genre compte environ 96 espèces communément appelées lanternes de fée, réparties dans les régions subtropicales d'Asie, d'Australie, de Nouvelle-Guinée, de Nouvelle-Zélande et d'Amérique[4].
+Thismia est un genre de plantes mycohétérotrophes de la famille des Burmanniacées et dont l'espèce type est Thismia brunonis. Ce genre compte environ 96 espèces communément appelées lanternes de fée, réparties dans les régions subtropicales d'Asie, d'Australie, de Nouvelle-Guinée, de Nouvelle-Zélande et d'Amérique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces plantes, semi-enterrées, sont constituées d'un tubercule dont les racines rejoignent des champignons mycorhiziens arbusculaires, d'une tige, d'une fleur complète (un tube floral constitué de six tépales et fermé par un orifice central millimétrique, un ovaire portant un stigmate globuleux sur un style très court, et des étamines aplaties), et de très petites feuilles blanches à la base de la fleur, vestigiales[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces plantes, semi-enterrées, sont constituées d'un tubercule dont les racines rejoignent des champignons mycorhiziens arbusculaires, d'une tige, d'une fleur complète (un tube floral constitué de six tépales et fermé par un orifice central millimétrique, un ovaire portant un stigmate globuleux sur un style très court, et des étamines aplaties), et de très petites feuilles blanches à la base de la fleur, vestigiales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les champignons mycorhiziens étant en symbiose avec des arbres, les lanternes de fée détournent les produits de la photosynthèse de l'arbre via le champignon. La pollinisation est assurée, au moins chez T. abei, par un moucheron des champignons (Bradysia atracornea)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les champignons mycorhiziens étant en symbiose avec des arbres, les lanternes de fée détournent les produits de la photosynthèse de l'arbre via le champignon. La pollinisation est assurée, au moins chez T. abei, par un moucheron des champignons (Bradysia atracornea).
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (26 mars 2023)[3] le genre comporte entre autres les espèces suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (26 mars 2023) le genre comporte entre autres les espèces suivantes :
 Thismia abei (Akasawa) Hatus. - île de Shikoku (Japon)
 Thismia acuminata Hrones, Dancák &amp; Sochor
 Thismia alba Holttum ex Jonker
-† Thismia americana N.Pfeiff.[5] - Lac Calumet dans l'Illinois aux USA éteinte[6]
-Thismia angustimitra Chantanaorr.[7] - Thaïlande
+† Thismia americana N.Pfeiff. - Lac Calumet dans l'Illinois aux USA éteinte
+Thismia angustimitra Chantanaorr. - Thaïlande
 Thismia annamensis K.Larsen &amp; Aver. - Vietnam
 Thismia appendiculata Schltr.
 Thismia arachnites Ridl. - Malaisie
@@ -598,15 +616,15 @@
 Thismia bryndonii Tsukaya, Suetsugu &amp; Suleiman
 † Thismia caudata Maas &amp; H.Maas -  Brésil éteinte
 Thismia chrysops Ridl. -  Malaisie
-Thismia clandestina (Blume) Miq.[7] - Java
+Thismia clandestina (Blume) Miq. - Java
 Thismia clandestina F.Muell.
-Thismia clavarioides K.R.Thiele[8] - Nouvelle-Galles du Sud
+Thismia clavarioides K.R.Thiele - Nouvelle-Galles du Sud
 Thismia claviformis Chantanaorr. &amp; J.Wai
 Thismia cordata D.F.Silva &amp; J.M.A.Braga
 Thismia cornuta Hrones, Sochor &amp; Dancák
-Thismia crocea (Becc.) J.J.Sm.[7] - Nouvelle-Guinée
+Thismia crocea (Becc.) J.J.Sm. - Nouvelle-Guinée
 Thismia domei Siti-Munirah
-Thismia episcopalis (Becc.) F.Muell.[7] - Bornéo
+Thismia episcopalis (Becc.) F.Muell. - Bornéo
 Thismia espirito-santensis Brade -  Espírito Santo au Brésil
 Thismia filiformis Chantanaorr. - Thaïlande
 Thismia fumida Ridl. -  Selangor, Singapour
@@ -619,10 +637,10 @@
 Thismia goodii Kiew - Sabah
 Thismia grandiflora Ridl. - Johor en Malaisie
 Thismia hawkesii W.E.Cooper
-Thismia hexagona Dancák, Hrone, Kobrlová &amp; Sochor, 2013[9]
+Thismia hexagona Dancák, Hrone, Kobrlová &amp; Sochor, 2013
 Thismia hexagona var. grandiflora  Tsukaya, Suleiman &amp; H.Okada
 Thismia hexagona var. hexagona 
-Thismia hongkongensis (en) Mar &amp; R.M.K.Saunders[10] - Hong Kong
+Thismia hongkongensis (en) Mar &amp; R.M.K.Saunders - Hong Kong
 Thismia huangii P.Y.Jiang &amp; T.H.Hsieh - Taiwan
 Thismia hyalina (Miers) Benth. &amp; Hook.f. ex F.Muell. - Pérou, Brésil
 Thismia iguassuensis (Miers) Warm. - Rio de Janeiro au Brésil
@@ -642,11 +660,11 @@
 Thismia luetzelburgii Goebel &amp; Suess. - Costa Rica, Panama, Espirito Santo au Brésil
 Thismia macahensis (Miers) F.Muell. - Rio de Janeiro au Brésil
 Thismia mantiqueirensis Engels &amp; E.C.Smidt
-Thismia megalongensis C.A.Hunt, G.Steenbee. &amp; V.Merckx[11] - Nouvelle-Galles du Sud (Australie)
+Thismia megalongensis C.A.Hunt, G.Steenbee. &amp; V.Merckx - Nouvelle-Galles du Sud (Australie)
 Thismia melanomitra (en) Maas &amp; H.Maas - Équateur
 Thismia mirabilis K.Larsen - Thaïlande
 Thismia mucronata Nuraliev
-Thismia mullerensis Tsukaya &amp; H.Okada[12] - Kalimantan
+Thismia mullerensis Tsukaya &amp; H.Okada - Kalimantan
 Thismia neptunis Becc. - Sarawak
 Thismia nigra Dancák, Hrones &amp; Sochor
 Thismia nigricans Chantanaorr. &amp; Sridith
@@ -660,21 +678,21 @@
 Thismia puberula Nuraliev
 Thismia racemosa Ridl. - Pahang en Malaisie
 Thismia ribeiroi Engels, D.Ferreira-da-Silva &amp; Soares-Lopes
-Thismia rodwayi F.Muell. Fairy Lanterns[8] - New South Wales, Tasmanie, Victoria, New Zealand North Island
+Thismia rodwayi F.Muell. Fairy Lanterns - New South Wales, Tasmanie, Victoria, New Zealand North Island
 Thismia sahyadrica Sujanapal, Robi &amp; Dantas
-Thismia saulensis H.Maas &amp; Maas[13] - Guyane
+Thismia saulensis H.Maas &amp; Maas - Guyane
 Thismia singeri (de la Sota) Maas &amp; H.Maas - Beni en Bolivie
 Thismia sitimeriamiae Siti-Munirah, Dome &amp; Thorogood, 2021
 Thismia submucronata Chantanaorr., Tetsana &amp; Tripetch
 Thismia sumatrana Suetsugu &amp; Tsukaya
-Thismia taiwanensis Sheng Z.Yang, R.M.K.Saunders &amp; C.J.Hsu[14] - Gaoxiong in Taiwan
+Thismia taiwanensis Sheng Z.Yang, R.M.K.Saunders &amp; C.J.Hsu - Gaoxiong in Taiwan
 Thismia tectipora Cowie
 Thismia tentaculata K.Larsen &amp; Aver. - Hong Kong, Vietnam
 Thismia terengganuensis Siti-Munirah
 Thismia thaithongiana Chantanaorr. &amp; Suddee
 Thismia tuberculata Hatus. - Kyushu au Japon
 Thismia viridistriata Sochor, Hrones &amp; Dancák
-Thismia yorkensis Cribb[8] - North Queensland
+Thismia yorkensis Cribb - North Queensland
 </t>
         </is>
       </c>
